--- a/pymoo_optimization_results.xlsx
+++ b/pymoo_optimization_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>goal_1</t>
+          <t>acc_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>acc_1</t>
+          <t>init_velocity_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>init_velocity_2</t>
+          <t>start_2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>start_2</t>
+          <t>acc_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>goal_2</t>
+          <t>Object_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>acc_2</t>
+          <t>Object_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Positive_Point</t>
+          <t>Object_3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -497,34 +497,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.712438136322918</v>
+        <v>6.621323469893537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203244934421581</v>
+        <v>0.4058518738450314</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06179307131027172</v>
+        <v>0.8847560309546316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3023325726318398</v>
+        <v>5.199021539536311</v>
       </c>
       <c r="F2" t="n">
-        <v>2.880535344902678</v>
+        <v>0.6918771139504734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1145811742355962</v>
+        <v>0.3139162804314959</v>
       </c>
       <c r="H2" t="n">
-        <v>2.640698652752835</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4326775125406481</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>-100</v>
+        <v>-0.01476821428571428</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7575757575757576</v>
+        <v>0.2470588235294118</v>
       </c>
     </row>
     <row r="3">
@@ -532,34 +532,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.986572306125594</v>
+        <v>4.502132028215444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8746214369626348</v>
+        <v>0.7203244934421581</v>
       </c>
       <c r="D3" t="n">
-        <v>1.206127276844437</v>
+        <v>0.0001143748173448866</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1472194718557443</v>
+        <v>3.813995435791039</v>
       </c>
       <c r="F3" t="n">
-        <v>7.314445566590077</v>
+        <v>0.146755890817113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6119366421573782</v>
+        <v>0.0923385947687978</v>
       </c>
       <c r="H3" t="n">
-        <v>2.653509351368723</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3599360146292048</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-100</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3412969283276451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -567,524 +567,979 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.504588099229648</v>
+        <v>6.602732845036062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8140098676149725</v>
+        <v>0.424721102503349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06695690163961393</v>
+        <v>0.8847970198582242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3312484553985865</v>
+        <v>5.198991743496154</v>
       </c>
       <c r="F4" t="n">
-        <v>5.933537468216785</v>
+        <v>0.6918771139504734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004735562150778756</v>
+        <v>0.2343814450636602</v>
       </c>
       <c r="H4" t="n">
-        <v>2.395109908922972</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1221372881492573</v>
+        <v>45</v>
       </c>
       <c r="J4" t="n">
-        <v>-100</v>
+        <v>-0.01134835068965517</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.546448087431694</v>
+        <v>0.3372093023255814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.481796544704853</v>
+        <v>6.125317844257913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.739264684188961</v>
+        <v>0.7233386301575429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0628153275377008</v>
+        <v>0.90563337730383</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3214231445934778</v>
+        <v>5.897291744623289</v>
       </c>
       <c r="F5" t="n">
-        <v>5.368745914434547</v>
+        <v>0.7509571243814506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03684678247483703</v>
+        <v>0.1904882038587027</v>
       </c>
       <c r="H5" t="n">
-        <v>2.395109908922972</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2356616991203154</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>-100</v>
+        <v>-0.003200365882352941</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.8928571428571429</v>
+        <v>0.2537313432835821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.481796544704853</v>
+        <v>4.93322035476606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.739264684188961</v>
+        <v>0.4253567329421101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0628153275377008</v>
+        <v>0.8785349505239095</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3214231445934778</v>
+        <v>3.700738361630217</v>
       </c>
       <c r="F6" t="n">
-        <v>5.290023643406317</v>
+        <v>0.7934005867820118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0372511975452991</v>
+        <v>0.1925514248749584</v>
       </c>
       <c r="H6" t="n">
-        <v>2.395109908922972</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2356616991203154</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>-100</v>
+        <v>-0.002282124999999979</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.8928571428571429</v>
+        <v>0.1573033707865168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.74030980487153</v>
+        <v>6.126136580487255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7228103765500529</v>
+        <v>0.7233386301575429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04983269713763805</v>
+        <v>0.90563337730383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1700876031222621</v>
+        <v>5.905819993595096</v>
       </c>
       <c r="F7" t="n">
-        <v>3.349279861021623</v>
+        <v>0.7538545391211663</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03201588602390559</v>
+        <v>0.1904882038587027</v>
       </c>
       <c r="H7" t="n">
-        <v>2.647360279647178</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3449650577420983</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>-100</v>
+        <v>-0.003185697647058818</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.5847953216374269</v>
+        <v>0.2537313432835821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3.077505579189362</v>
+        <v>6.159967939709007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7131888068833359</v>
+        <v>0.7279260573661274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01674349748029125</v>
+        <v>0.9037757912966298</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3023325726318398</v>
+        <v>5.742033242333653</v>
       </c>
       <c r="F8" t="n">
-        <v>2.880544530635992</v>
+        <v>0.7595834524355082</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08724424144691653</v>
+        <v>0.1922007621614446</v>
       </c>
       <c r="H8" t="n">
-        <v>2.412259700635089</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7153859742340386</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>-100</v>
+        <v>-0.00129411875</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.6451612903225806</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.504588099229648</v>
+        <v>6.621323469893537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.780426175988913</v>
+        <v>0.8922306543127746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06615485219399245</v>
+        <v>0.8847970198582242</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3214042354915493</v>
+        <v>5.28520733249515</v>
       </c>
       <c r="F9" t="n">
-        <v>2.148899135836388</v>
+        <v>0.9358372306186699</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01059496014728019</v>
+        <v>0.3153405879600278</v>
       </c>
       <c r="H9" t="n">
-        <v>2.395473388563093</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2329742738410204</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>-100</v>
+        <v>-9.999999999999939e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4444444444444444</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.933149394735962</v>
+        <v>4.905862987929567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7227999845851716</v>
+        <v>0.4253567329421101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007456802951264465</v>
+        <v>0.8785349505239095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1799606903941304</v>
+        <v>3.700738361630217</v>
       </c>
       <c r="F10" t="n">
-        <v>3.49036459594211</v>
+        <v>0.7934005867820118</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08724424144691653</v>
+        <v>0.1889357663819858</v>
       </c>
       <c r="H10" t="n">
-        <v>2.652536564156215</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3603409976726745</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-100</v>
+        <v>-0.00105108</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6211180124223602</v>
+        <v>0.01123595505617977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.045541919306604</v>
+        <v>4.958313941928909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.781128740589203</v>
+        <v>0.7375313440514139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00266469895066857</v>
+        <v>0.83420778811161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3023325726318398</v>
+        <v>5.675977965492047</v>
       </c>
       <c r="F11" t="n">
-        <v>2.15903608229496</v>
+        <v>0.7614209768013769</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009262497839546822</v>
+        <v>0.3361790949405022</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42187158488169</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2318045995020649</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>-100</v>
+        <v>-0.00038368</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.3344481605351171</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.504588099229648</v>
+        <v>4.913288723397038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8140098676149725</v>
+        <v>0.4605515121955169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06695690163961393</v>
+        <v>0.8330305251106488</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3214231445934778</v>
+        <v>3.418075426973726</v>
       </c>
       <c r="F12" t="n">
-        <v>5.933537468216785</v>
+        <v>0.7946919396742937</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01059496014728019</v>
+        <v>0.3224774904794004</v>
       </c>
       <c r="H12" t="n">
-        <v>2.395109908922972</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2329742738410204</v>
+        <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>-100</v>
+        <v>-0.00142292399999998</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.546448087431694</v>
+        <v>0.04672897196261682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4.483235032191683</v>
+        <v>6.125317844257913</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7355987972094701</v>
+        <v>0.7233386301575429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06615485219399245</v>
+        <v>0.90563337730383</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3214042354915493</v>
+        <v>5.925469546082502</v>
       </c>
       <c r="F13" t="n">
-        <v>2.887559003975028</v>
+        <v>0.7509571243814506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1172336471545277</v>
+        <v>0.1904882038587027</v>
       </c>
       <c r="H13" t="n">
-        <v>2.396942392308181</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2329742738410204</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>-100</v>
+        <v>-0.0032000025</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.8928571428571429</v>
+        <v>0.2388059701492537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3.023352855416942</v>
+        <v>6.144256762920197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6117659823721039</v>
+        <v>0.7259979853504515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005427279453914857</v>
+        <v>0.8342915006020029</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2792404482289905</v>
+        <v>5.707680351308902</v>
       </c>
       <c r="F14" t="n">
-        <v>2.878966059221468</v>
+        <v>0.7509571243814506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09067184701996545</v>
+        <v>0.292714368350942</v>
       </c>
       <c r="H14" t="n">
-        <v>2.39379347274251</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7162816145920051</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>-100</v>
+        <v>-0.0009679999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3745318352059925</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.961208185334518</v>
+        <v>4.885043936165023</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8073912887095238</v>
+        <v>0.4605515121955169</v>
       </c>
       <c r="D15" t="n">
-        <v>1.193030510956601</v>
+        <v>0.8330305251106488</v>
       </c>
       <c r="E15" t="n">
-        <v>0.147101654081745</v>
+        <v>3.418075426973726</v>
       </c>
       <c r="F15" t="n">
-        <v>7.314445566590077</v>
+        <v>0.7946919396742937</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6050266937090858</v>
+        <v>0.1186307645145915</v>
       </c>
       <c r="H15" t="n">
-        <v>2.647496253636171</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7078527363144229</v>
+        <v>47</v>
       </c>
       <c r="J15" t="n">
-        <v>-100</v>
+        <v>-0.00231343</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.3389830508474576</v>
+        <v>0.02803738317757009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.972199708937613</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.427194604886205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8794032048817826</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.719998908451376</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7956240988870504</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3083156060970517</v>
+      </c>
+      <c r="H16" t="n">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>4.346722185853102</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7203244934421581</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.03401999341273954</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3023325726318398</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.89835996026646</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.08680969590558164</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.675576299550815</v>
-      </c>
       <c r="I16" t="n">
-        <v>0.3493240064204144</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>-100</v>
+        <v>-0.00184368999999995</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.8695652173913043</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.182912909563714</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.670045289576643</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8787896570512289</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.223306025449448</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7511337994077815</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03529501052253858</v>
+      </c>
+      <c r="H17" t="n">
         <v>19</v>
       </c>
-      <c r="B17" t="n">
-        <v>2.986572306125594</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8503712842336619</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.206127276844437</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1472194718557443</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.314445566590077</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6119366421573782</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.653509351368723</v>
-      </c>
       <c r="I17" t="n">
-        <v>0.3602008769580238</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>-100</v>
+        <v>-0.0011676</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3412969283276451</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.963885490170089</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4605026627376905</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8292706915216888</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.719998908451376</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7604948284189936</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3361790949405022</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.00191213999999995</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.60127686210629</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8942302526426372</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8847970198582242</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.290106190938316</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9358372306186699</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3153405879600278</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.00104348999999996</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.108190765905137</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7039941184145828</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0001143748173448866</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.675239552501143</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.778895463578165</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.08262565151008587</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.001224276249999975</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1355932203389831</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B18" t="n">
-        <v>3.744304097271507</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7363364289953168</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1011427252793299</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.3023325726318398</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.880535344902678</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1128764054358068</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.640698652752835</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.4326775125406481</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.7633587786259542</v>
+      <c r="B21" t="n">
+        <v>4.893248512968896</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4632597167792165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9319625200744055</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.418075426973726</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7946919396742937</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1016858233195742</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>47</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.0014999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01869158878504673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.159494540716384</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7259979853504515</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9108913650893593</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.742033242333653</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7596149628326343</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7070225070079372</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.001390359999999967</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.103448275862069</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.144256762920197</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.703908353686894</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.933599922513251</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.741949526755558</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7509424340273372</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2155047367938266</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.00140333875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1355932203389831</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.192372205222638</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3114037638399885</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8292205372132709</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.742033242333653</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7587276743070563</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3200543557138277</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.621323469893537</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4810401212833122</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8847970198582242</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.28520733249515</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9379447721732039</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1320701694005162</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.972090066973962</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.46321086732139</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9282026902331574</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.719998908451376</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1228600327904075</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3216595656361801</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.502132028215444</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7203244934421581</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8718419466625855</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.422593329467517</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.146755890817113</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3113460450788993</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.159494540716384</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4374579345801318</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8828064938017653</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.742033242333653</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6923078533529157</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7070225070079372</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.893248512968896</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5195400653118762</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9319625200744055</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.418075426973726</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7933465515786464</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1016858233195742</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.0014999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01869158878504673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.017527166301148</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7132272654912223</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8292706915216888</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.719998908451376</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7604948284189936</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3352720034898959</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.885043936165023</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8717326784969842</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8330305251106488</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.418075426973726</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7925842375391289</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3019011915011844</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,16 +1589,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-1.5644000000000002]</t>
+          <t>[-19.039471853241054]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.5644000000000002]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>[-19.039471853241054]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1152,16 +1609,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-1.5585000000000002]</t>
+          <t>[-18.533586722883705]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-1.5585000000000002]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>[-18.533586722883705]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1170,16 +1629,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-1.5485999999999998]</t>
+          <t>[-18.02755695873717]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-1.5485999999999998]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>[-18.02755695873717]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1188,16 +1649,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-1.5384999999999998]</t>
+          <t>[-17.521411378704826]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-1.5384999999999998]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>[-17.521411378704826]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1206,16 +1669,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-1.5272000000000003]</t>
+          <t>[-17.01461863331837]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-1.5272000000000003]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>[-17.01461863331837]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1224,16 +1689,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-1.5157]</t>
+          <t>[-16.507116876028434]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-1.5157]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>[-16.507116876028434]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1242,16 +1709,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-1.505]</t>
+          <t>[-15.999062023891677]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-1.505]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>[-15.999062023891677]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1729,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-1.49]</t>
+          <t>[-15.490353987809137]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-1.49]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>[-15.490353987809137]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1749,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-1.4662999999999995]</t>
+          <t>[-14.981229450235162]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-1.4662999999999995]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>[-14.981229450235162]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1296,16 +1769,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-1.4490999999999998]</t>
+          <t>[-14.472149277496465]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-1.4490999999999998]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>[-14.472149277496465]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1314,16 +1789,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-1.4319]</t>
+          <t>[-13.963340096050622]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-1.4319]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>[-13.963340096050622]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1332,16 +1809,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[-1.4151999999999998]</t>
+          <t>[-13.4554210868732]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[-1.4151999999999998]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>[-13.4554210868732]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1350,16 +1829,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-1.3943]</t>
+          <t>[-12.948927748562625]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-1.3943]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+          <t>[-12.948927748562625]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1368,16 +1849,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-1.3692999999999995]</t>
+          <t>[-12.444091660115866]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-1.3692999999999995]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+          <t>[-12.444091660115866]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1386,16 +1869,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-1.3437]</t>
+          <t>[-11.941602976056169]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-1.3437]</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+          <t>[-11.941602976056169]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1404,16 +1889,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[-1.3294999999999997]</t>
+          <t>[-11.441924149930774]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[-1.3294999999999997]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+          <t>[-11.441924149930774]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1422,16 +1909,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-1.3162]</t>
+          <t>[-10.945172886897886]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-1.3162]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+          <t>[-10.945172886897886]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1440,16 +1929,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-1.2997]</t>
+          <t>[-10.4520400250952]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-1.2997]</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>[-10.4520400250952]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1458,16 +1949,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-1.2836999999999998]</t>
+          <t>[-9.96314528750278]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-1.2836999999999998]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+          <t>[-9.96314528750278]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1476,16 +1969,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-1.2702000000000002]</t>
+          <t>[-9.479057305144618]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-1.2702000000000002]</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+          <t>[-9.479057305144618]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1494,16 +1989,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[-1.2568]</t>
+          <t>[-9.000142698442023]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[-1.2568]</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+          <t>[-9.000142698442023]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1512,16 +2009,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[-1.2484]</t>
+          <t>[-8.527189656361177]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-1.2484]</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+          <t>[-8.527189656361177]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1530,16 +2029,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[-1.2476]</t>
+          <t>[-8.060547785993059]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-1.2476]</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+          <t>[-8.060547785993059]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1548,16 +2049,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[-1.2492000000000003]</t>
+          <t>[-7.600855526595545]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[-1.2492000000000003]</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+          <t>[-7.600855526595545]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1566,16 +2069,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[-1.2500000000000002]</t>
+          <t>[-7.14871032830105]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-1.2500000000000002]</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+          <t>[-7.14871032830105]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1584,16 +2089,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[-1.2500000000000002]</t>
+          <t>[-6.7045740847892965]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[-1.2500000000000002]</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+          <t>[-6.7045740847892965]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1602,16 +2109,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[-1.2485000000000002]</t>
+          <t>[-6.268967666240709]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[-1.2485000000000002]</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+          <t>[-6.268967666240709]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1620,16 +2129,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[-1.2538000000000002]</t>
+          <t>[-5.842559689009136]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[-1.2538000000000002]</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+          <t>[-5.842559689009136]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1638,16 +2149,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[-1.2588]</t>
+          <t>[-5.425854766359379]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[-1.2588]</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+          <t>[-5.425854766359379]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1656,16 +2169,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-1.263]</t>
+          <t>[-5.01948464896909]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[-1.263]</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+          <t>[-5.01948464896909]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1674,16 +2189,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[-1.2667000000000004]</t>
+          <t>[-4.624066520581039]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[-1.2667000000000004]</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+          <t>[-4.624066520581039]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1692,16 +2209,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[-1.2695]</t>
+          <t>[-4.239952318434952]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[-1.2695]</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+          <t>[-4.239952318434952]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1710,16 +2229,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-1.279]</t>
+          <t>[-3.868194925465144]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[-1.279]</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+          <t>[-3.868194925465144]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1728,16 +2249,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[-1.2807000000000002]</t>
+          <t>[-3.508975401110103]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[-1.2807000000000002]</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+          <t>[-3.508975401110103]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1746,16 +2269,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-1.2844999999999998]</t>
+          <t>[-3.1631805313950814]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[-1.2844999999999998]</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+          <t>[-3.1631805313950814]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1764,16 +2289,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[-1.2893]</t>
+          <t>[-2.831267036675822]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[-1.2893]</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+          <t>[-2.831267036675822]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1782,16 +2309,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[-1.2972000000000004]</t>
+          <t>[-2.5139986692724143]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[-1.2972000000000004]</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+          <t>[-2.5139986692724143]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1800,16 +2329,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[-1.3263]</t>
+          <t>[-2.2119982273094934]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[-1.3263]</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+          <t>[-2.2119982273094934]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1818,16 +2349,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[-1.3533000000000002]</t>
+          <t>[-1.9256836413371587]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[-1.3533000000000002]</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+          <t>[-1.9256836413371587]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1836,16 +2369,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[-1.3759]</t>
+          <t>[-1.6558241055379843]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[-1.3759]</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+          <t>[-1.6558241055379843]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1854,16 +2389,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[-1.3994000000000002]</t>
+          <t>[-1.4030420478024546]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[-1.3994000000000002]</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+          <t>[-1.4030420478024546]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1872,16 +2409,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[-1.4253000000000002]</t>
+          <t>[-1.167949281165619]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[-1.4253000000000002]</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+          <t>[-1.167949281165619]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1890,16 +2429,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[-1.4574]</t>
+          <t>[-0.951222867651424]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[-1.4574]</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+          <t>[-0.951222867651424]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1908,16 +2449,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[-1.4888]</t>
+          <t>[-0.7532190960824217]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[-1.4888]</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+          <t>[-0.7532190960824217]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1926,16 +2469,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[-1.5126000000000002]</t>
+          <t>[-0.5745376565307048]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[-1.5126000000000002]</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+          <t>[-0.5745376565307048]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1944,16 +2489,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[-1.5233]</t>
+          <t>[-0.4157696110139355]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[-1.5233]</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+          <t>[-0.4157696110139355]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1962,16 +2509,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[-1.5365000000000004]</t>
+          <t>[-0.2773827191775417]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[-1.5365000000000004]</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+          <t>[-0.2773827191775417]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1980,16 +2529,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[-1.5481999999999998]</t>
+          <t>[-0.1598418954613834]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[-1.5481999999999998]</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+          <t>[-0.1598418954613834]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1998,16 +2549,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[-1.5592]</t>
+          <t>[-0.0634268259437682]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[-1.5592]</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+          <t>[-0.0634268259437682]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2016,16 +2569,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[-1.5704]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[-1.5704]</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2034,16 +2589,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[-1.5767]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[-1.5767]</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2052,16 +2609,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[-1.5732000000000002]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-1.5732000000000002]</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2070,16 +2629,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[-1.5715]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-1.5715]</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2088,16 +2649,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[-1.5708]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-1.5708]</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2106,16 +2669,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[-1.5701000000000005]</t>
+          <t>[-0.0101]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[-1.5701000000000005]</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2124,16 +2689,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[-1.5690000000000002]</t>
+          <t>[-0.01]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[-1.5690000000000002]</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+          <t>[-0.01]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2142,16 +2709,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[-1.5687999999999998]</t>
+          <t>[-0.0737535543305938]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[-1.5687999999999998]</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+          <t>[-0.0737535543305938]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2160,16 +2729,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[-1.5685000000000004]</t>
+          <t>[-0.1702170779096974]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[-1.5685000000000004]</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+          <t>[-0.1702170779096974]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2178,16 +2749,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[-1.5683]</t>
+          <t>[-0.2867205050496046]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[-1.5683]</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+          <t>[-0.2867205050496046]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2196,16 +2769,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[-1.5682000000000005]</t>
+          <t>[-0.4227284261922257]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[-1.5682000000000005]</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+          <t>[-0.4227284261922257]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2214,16 +2789,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[-1.5687999999999998]</t>
+          <t>[-0.5775597302012443]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[-1.5687999999999998]</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+          <t>[-0.5775597302012443]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2232,16 +2809,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[-1.5691]</t>
+          <t>[-0.7510947422057725]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[-1.5691]</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+          <t>[-0.7510947422057725]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2250,16 +2829,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[-1.5694]</t>
+          <t>[-0.9423751014539904]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[-1.5694]</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+          <t>[-0.9423751014539904]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2268,16 +2849,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[-2.067070812595283]</t>
+          <t>[-1.1511224981086985]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[-2.067070812595283]</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+          <t>[-1.1511224981086985]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2286,16 +2869,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[-2.822083362425367]</t>
+          <t>[-1.3743133449942633]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[-2.822083362425367]</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+          <t>[-1.3743133449942633]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2304,16 +2889,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[-3.577327675084568]</t>
+          <t>[-1.6100583701201536]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[-3.577327675084568]</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+          <t>[-1.6100583701201536]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2322,16 +2909,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[-4.332749017810961]</t>
+          <t>[-1.8576689820758323]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[-4.332749017810961]</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+          <t>[-1.8576689820758323]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2340,16 +2929,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[-5.088247464500135]</t>
+          <t>[-2.116369843398804]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[-5.088247464500135]</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+          <t>[-2.116369843398804]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2358,16 +2949,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[-5.843904827599353]</t>
+          <t>[-2.384086272617875]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[-5.843904827599353]</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+          <t>[-2.384086272617875]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2376,16 +2969,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[-6.599757006023964]</t>
+          <t>[-2.6520775437927533]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[-6.599757006023964]</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+          <t>[-2.6520775437927533]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2394,16 +2989,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[-7.355661059603804]</t>
+          <t>[-2.918257909797596]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[-7.355661059603804]</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+          <t>[-2.918257909797596]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2412,16 +3009,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[-8.111743280647765]</t>
+          <t>[-3.182058788856523]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[-8.111743280647765]</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+          <t>[-3.182058788856523]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2430,16 +3029,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[-8.86786187237471]</t>
+          <t>[-3.4427408145890688]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[-8.86786187237471]</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+          <t>[-3.4427408145890688]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2448,16 +3049,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[-9.624144478083052]</t>
+          <t>[-3.698887286326336]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[-9.624144478083052]</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+          <t>[-3.698887286326336]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2466,16 +3069,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[-10.380584884570451]</t>
+          <t>[-3.9492793430199065]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[-10.380584884570451]</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+          <t>[-3.9492793430199065]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2484,16 +3089,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[-11.137039705112471]</t>
+          <t>[-4.192716664318624]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[-11.137039705112471]</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+          <t>[-4.192716664318624]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2502,16 +3109,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[-11.893686420987107]</t>
+          <t>[-4.429543532780141]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[-11.893686420987107]</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+          <t>[-4.429543532780141]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2520,16 +3129,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[-12.650382073904105]</t>
+          <t>[-4.658554305149359]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[-12.650382073904105]</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+          <t>[-4.658554305149359]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2538,16 +3149,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[-13.407213851732068]</t>
+          <t>[-4.878038399560364]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[-13.407213851732068]</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+          <t>[-4.878038399560364]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2556,16 +3169,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[-14.164084717109226]</t>
+          <t>[-5.086401723842343]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[-14.164084717109226]</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+          <t>[-5.086401723842343]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2574,16 +3189,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[-14.921083015662036]</t>
+          <t>[-5.284183581045287]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[-14.921083015662036]</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+          <t>[-5.284183581045287]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2592,16 +3209,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[-15.678111817915592]</t>
+          <t>[-5.470930103551382]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[-15.678111817915592]</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+          <t>[-5.470930103551382]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2610,16 +3229,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[-16.43521375529567]</t>
+          <t>[-5.647183696460711]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[-16.43521375529567]</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+          <t>[-5.647183696460711]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2628,880 +3249,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[-17.192432148597717]</t>
+          <t>[-5.811571002168776]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[-17.192432148597717]</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>[-17.949670121597293]</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[-17.949670121597293]</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>[-18.70701835926728]</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[-18.70701835926728]</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>[-19.46429177548184]</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[-19.46429177548184]</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>[-20.22184639477127]</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[-20.22184639477127]</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>[-20.97936802295611]</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[-20.97936802295611]</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>[-21.736847600332204]</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>[-21.736847600332204]</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>[-22.494472324045702]</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>[-22.494472324045702]</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>[-23.252097806659226]</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[-23.252097806659226]</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>[-24.0098170969871]</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[-24.0098170969871]</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>[-24.7675807741222]</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[-24.7675807741222]</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>[-25.525339203106174]</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[-25.525339203106174]</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>[-26.283226119688628]</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[-26.283226119688628]</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>[-27.041024507717253]</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[-27.041024507717253]</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>[-27.79894836456802]</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[-27.79894836456802]</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>[-28.55686033813631]</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[-28.55686033813631]</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>[-29.31485517895159]</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[-29.31485517895159]</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>[-30.072795936014167]</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[-30.072795936014167]</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>[-30.830856587508286]</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[-30.830856587508286]</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>[-31.588899948610862]</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[-31.588899948610862]</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>[-32.347021545218986]</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[-32.347021545218986]</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>[-33.105172000399456]</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[-33.105172000399456]</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>[-33.86326285502488]</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[-33.86326285502488]</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>[-34.62146802332798]</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[-34.62146802332798]</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>[-35.37969910798]</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[-35.37969910798]</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>[-36.13799385746441]</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>[-36.13799385746441]</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>[-36.89618674887232]</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[-36.89618674887232]</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>[-37.654441539414094]</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[-37.654441539414094]</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>[-38.4127676689812]</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[-38.4127676689812]</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>[-39.17111564236912]</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[-39.17111564236912]</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>[-39.92948474892404]</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>[-39.92948474892404]</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>[-40.687787134129465]</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[-40.687787134129465]</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>[-41.44614747913283]</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[-41.44614747913283]</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>[-42.20457599854736]</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[-42.20457599854736]</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>[-42.96302309807345]</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[-42.96302309807345]</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>[-43.72148820425427]</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[-43.72148820425427]</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>[-44.47988371594036]</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[-44.47988371594036]</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>[-45.23838323050278]</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>[-45.23838323050278]</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>[-45.996899166347575]</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[-45.996899166347575]</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>[-46.755381700894446]</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[-46.755381700894446]</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>[-47.513842038438526]</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>[-47.513842038438526]</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>[-48.27235496374182]</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[-48.27235496374182]</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>[-49.03093184905515]</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[-49.03093184905515]</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>[-49.78952290401291]</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[-49.78952290401291]</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>[-50.54812772827188]</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>[-50.54812772827188]</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>[-51.30665907943826]</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>[-51.30665907943826]</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>[-52.0653275662749]</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[-52.0653275662749]</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>[-52.82397140852399]</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[-52.82397140852399]</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>[-53.58262756195214]</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[-53.58262756195214]</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
+          <t>[-5.811571002168776]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3301,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.712438136322918</v>
+        <v>4.502132028215444</v>
       </c>
     </row>
     <row r="3">
@@ -3558,71 +3317,71 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>goal_1</t>
+          <t>init_velocity_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06179307131027172</v>
+        <v>0.0001143748173448866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>init_velocity_2</t>
+          <t>start_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3023325726318398</v>
+        <v>3.813995435791039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>start_2</t>
+          <t>acc_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.880535344902678</v>
+        <v>0.146755890817113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>goal_2</t>
+          <t>acc_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1145811742355962</v>
+        <v>0.0923385947687978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>acc_1</t>
+          <t>Object_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.640698652752835</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>acc_2</t>
+          <t>Object_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4326775125406481</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Positive_Point</t>
+          <t>Object_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-100</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">

--- a/pymoo_optimization_results.xlsx
+++ b/pymoo_optimization_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,11 +478,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Object_2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Positive_Point_Ratio(%)</t>
         </is>
       </c>
@@ -513,73 +508,267 @@
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.768185261121666</v>
+        <v>3.117561268266026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7083038970477653</v>
+        <v>0.3455607270430477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001143748173448866</v>
+        <v>0.3967674742306699</v>
       </c>
       <c r="E3" t="n">
-        <v>3.813995435791039</v>
+        <v>5.232900404020142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.146755890817113</v>
+        <v>0.4191945144032948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0923385947687978</v>
+        <v>0.6852195003967595</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.502132028215444</v>
+        <v>3.226713498389104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5753579899930048</v>
+        <v>0.8781174363909454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001143748173448866</v>
+        <v>0.02738759319792616</v>
       </c>
       <c r="E4" t="n">
-        <v>3.813995435791039</v>
+        <v>6.022805061070414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146755890817113</v>
+        <v>0.417304802367127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0923385947687978</v>
+        <v>0.5586898284457517</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.842321631571402</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1981014890848788</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8007445686755367</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.809569454316385</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3134241781592428</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6923226156693141</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.258334913776229</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8946066635038473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08504421136977791</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.234328699397294</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1698304195645689</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8781425034294131</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.590081002998301</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4211076250050522</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9578895301505019</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.198991709838102</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6918771139504734</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3155156310060629</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.119005566089502</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8346256718973729</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01828827734419181</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.500865889669805</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9888610889064947</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7481656543798394</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.682663952386431</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7892793284514885</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.103226006577642</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.687361157055431</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9085955030930956</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2936141483736795</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.726652031518093</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1300285721182777</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01936695787029707</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.073013197639346</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.211628116000059</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2655466593722262</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.94943895568203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05336254511708038</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5741176054920131</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.880371449434861</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5893055369032842</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6997583600209312</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -594,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,11 +804,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>result2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Both_Positive</t>
         </is>
       </c>
@@ -630,15 +814,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-0.1037]</t>
+          <t>[-9.87072068531934]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -650,15 +829,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-0.3458]</t>
+          <t>[-9.865348620922406]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -670,15 +844,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-0.6982]</t>
+          <t>[-9.85964157037406]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -690,15 +859,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-0.8885]</t>
+          <t>[-9.85357647401935]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -710,15 +874,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-0.967]</t>
+          <t>[-9.847126567146086]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -730,15 +889,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-0.9426]</t>
+          <t>[-9.840263390651687]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -750,15 +904,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-1.1382]</t>
+          <t>[-9.83295574334156]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -770,15 +919,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-1.2525]</t>
+          <t>[-9.825165741903904]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -790,15 +934,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-1.2603]</t>
+          <t>[-9.816851810295324]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -810,15 +949,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-0.9376]</t>
+          <t>[-9.807971661312278]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -830,15 +964,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-0.5985]</t>
+          <t>[-9.79846727865049]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -850,15 +979,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[-0.2734]</t>
+          <t>[-9.788284576876526]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>[-0.0005]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -870,15 +994,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-0.0836]</t>
+          <t>[-9.777351739448385]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>[-0.0836]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -890,15 +1009,880 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-0.3532]</t>
+          <t>[-9.765592028429358]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-0.3532]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[-9.752914892170017]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[-9.739215780229513]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[-9.724370122227445]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[-9.70823949156588]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[-9.690651168730591]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[-9.671408340593066]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[-9.650265012467525]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[-9.626931788175666]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[-9.60105505102008]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[-9.572191061757946]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[-9.5398056697478]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[-9.503202395461042]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[-9.461501286625753]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[-9.413565766028965]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[-9.35790067251178]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[-9.292489744365325]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[-9.214521784387244]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[-9.120052280141437]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[-9.003213577433861]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[-8.855039694726345]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[-8.66102552145414]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[-8.396239845572309]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[-8.01753178692819]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[-7.454449813162634]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[-7.120151227325213]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[-7.181144191476941]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[-7.261107168204401]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[-7.340618101545253]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[-7.349724972497249]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[-7.358865855747815]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[-7.367946178539716]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[-7.371114749624778]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[-7.39966920947816]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[-7.427810809005278]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[-7.455459323658722]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[-7.482627187960085]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[-7.509074715807882]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[-7.534335011705846]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[-7.562331482950039]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[-7.589723555806582]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[-7.616145057128664]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[-7.641260718566555]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[-7.664613839081859]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[-7.686217300787496]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[-7.707440858928731]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[-7.729137895267166]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[-7.749202197995944]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[-7.767774473791615]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[-7.784917235791179]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[-7.800620832375259]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[-7.815134378659355]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[-7.828498821658763]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[-8.398848720272952]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[-8.398848720272952]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[-8.398848720272952]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[-8.428175363055255]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[-7.840240664369244]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[-7.838835500282645]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>[0]</t>
         </is>
@@ -915,7 +1899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,20 +1992,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Object_2</t>
+          <t>Positive_Point_Ratio(%)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Positive_Point_Ratio(%)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/pymoo_optimization_results.xlsx
+++ b/pymoo_optimization_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.502132028215444</v>
+        <v>2.623635258815865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203244934421581</v>
+        <v>0.515522344973934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001143748173448866</v>
+        <v>0.9812158765963285</v>
       </c>
       <c r="E2" t="n">
-        <v>3.813995435791039</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F2" t="n">
-        <v>0.146755890817113</v>
+        <v>0.03082569667687479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0923385947687978</v>
+        <v>0.5358964059155116</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="3">
@@ -516,28 +516,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.117561268266026</v>
+        <v>2.612082345818595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3455607270430477</v>
+        <v>0.5212581928809998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3967674742306699</v>
+        <v>0.9734942499596682</v>
       </c>
       <c r="E3" t="n">
-        <v>5.232900404020142</v>
+        <v>4.485065076382153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4191945144032948</v>
+        <v>0.04958585964331108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6852195003967595</v>
+        <v>0.6720782140910265</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="4">
@@ -545,28 +545,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.226713498389104</v>
+        <v>2.624436918421425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8781174363909454</v>
+        <v>0.515522344973934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02738759319792616</v>
+        <v>0.9538003368049606</v>
       </c>
       <c r="E4" t="n">
-        <v>6.022805061070414</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.417304802367127</v>
+        <v>0.04557336731624555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5586898284457517</v>
+        <v>0.5370220074467638</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="5">
@@ -574,28 +574,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.842321631571402</v>
+        <v>2.623890211383948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1981014890848788</v>
+        <v>0.515522344973934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8007445686755367</v>
+        <v>0.9869042997743188</v>
       </c>
       <c r="E5" t="n">
-        <v>7.809569454316385</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3134241781592428</v>
+        <v>0.03082569667687479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6923226156693141</v>
+        <v>0.5358964059155116</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="6">
@@ -603,28 +603,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.258334913776229</v>
+        <v>2.612082345818595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8946066635038473</v>
+        <v>0.5220857923327377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08504421136977791</v>
+        <v>0.9734942499596682</v>
       </c>
       <c r="E6" t="n">
-        <v>2.234328699397294</v>
+        <v>4.485401623424566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1698304195645689</v>
+        <v>0.04562816652835967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8781425034294131</v>
+        <v>0.6722058067084946</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="7">
@@ -632,28 +632,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.590081002998301</v>
+        <v>2.623635258815865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4211076250050522</v>
+        <v>0.515522344973934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9578895301505019</v>
+        <v>0.9451242969668183</v>
       </c>
       <c r="E7" t="n">
-        <v>5.198991709838102</v>
+        <v>4.485126351703923</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6918771139504734</v>
+        <v>0.03082569667687479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3155156310060629</v>
+        <v>0.5358964059155116</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="8">
@@ -661,28 +661,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.119005566089502</v>
+        <v>2.625023039153741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8346256718973729</v>
+        <v>0.5157679153502976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01828827734419181</v>
+        <v>0.9452143373100853</v>
       </c>
       <c r="E8" t="n">
-        <v>6.500865889669805</v>
+        <v>4.485126351703923</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9888610889064947</v>
+        <v>0.03082569667687479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7481656543798394</v>
+        <v>0.5358964059155116</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="9">
@@ -690,28 +690,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3.682663952386431</v>
+        <v>2.624436918421425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7892793284514885</v>
+        <v>0.4146538518928507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.103226006577642</v>
+        <v>0.9538003368049606</v>
       </c>
       <c r="E9" t="n">
-        <v>4.687361157055431</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9085955030930956</v>
+        <v>0.02342786895818864</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2936141483736795</v>
+        <v>0.5370220074467638</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="10">
@@ -719,28 +719,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3.726652031518093</v>
+        <v>2.623890211383948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1300285721182777</v>
+        <v>0.5146504213341796</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01936695787029707</v>
+        <v>0.9982622360464936</v>
       </c>
       <c r="E10" t="n">
-        <v>6.073013197639346</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.211628116000059</v>
+        <v>0.05331412544663298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2655466593722262</v>
+        <v>0.5360232739426226</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
       </c>
     </row>
     <row r="11">
@@ -748,28 +748,144 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4.94943895568203</v>
+        <v>2.623635258815865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05336254511708038</v>
+        <v>0.520976475966527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5741176054920131</v>
+        <v>0.9812158765963285</v>
       </c>
       <c r="E11" t="n">
-        <v>2.880371449434861</v>
+        <v>4.485075617161415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5893055369032842</v>
+        <v>0.04986758352729617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6997583600209312</v>
+        <v>0.5358964059155116</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1844660194174757</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.623635258815865</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4140559878195683</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.338456042796916</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.124951161730512</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02382574335277293</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5358964059155116</v>
+      </c>
+      <c r="H12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1844660194174757</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.612082345818595</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4303607466194318</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9734942499596682</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.485007784905272</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04958585964331108</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6720782140910265</v>
+      </c>
+      <c r="H13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1844660194174757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.612082345818595</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5212607745687805</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9734942499596682</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.485401623424566</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04554461123380727</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6720791063328787</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1844660194174757</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.612082345818595</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5220832106449569</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9734942499596682</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.485065076382153</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04966941493786347</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6722049144666425</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1844660194174757</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +930,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-9.87072068531934]</t>
+          <t>[-9.79963211636642]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -829,7 +945,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-9.865348620922406]</t>
+          <t>[-9.792126778655946]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +960,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-9.85964157037406]</t>
+          <t>[-9.784095442138623]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-9.85357647401935]</t>
+          <t>[-9.775499340738616]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -874,7 +990,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-9.847126567146086]</t>
+          <t>[-9.766301424273127]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +1005,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-9.840263390651687]</t>
+          <t>[-9.756456120296708]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -904,7 +1020,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-9.83295574334156]</t>
+          <t>[-9.745912467569974]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -919,7 +1035,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-9.825165741903904]</t>
+          <t>[-9.734611343162545]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -934,7 +1050,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-9.816851810295324]</t>
+          <t>[-9.722487677546615]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -949,7 +1065,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-9.807971661312278]</t>
+          <t>[-9.70946340693961]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -964,7 +1080,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-9.79846727865049]</t>
+          <t>[-9.69544991811733]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -979,7 +1095,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[-9.788284576876526]</t>
+          <t>[-9.680346237524551]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -994,7 +1110,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-9.777351739448385]</t>
+          <t>[-9.664032629975445]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,7 +1125,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-9.765592028429358]</t>
+          <t>[-9.646372171605105]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1024,7 +1140,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-9.752914892170017]</t>
+          <t>[-9.627202559630964]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1039,7 +1155,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[-9.739215780229513]</t>
+          <t>[-9.606325784817976]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1054,7 +1170,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-9.724370122227445]</t>
+          <t>[-9.583514146212934]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1069,7 +1185,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-9.70823949156588]</t>
+          <t>[-9.558485940903074]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1084,7 +1200,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-9.690651168730591]</t>
+          <t>[-9.530907077681697]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1099,7 +1215,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-9.671408340593066]</t>
+          <t>[-9.500372838564102]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1114,7 +1230,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[-9.650265012467525]</t>
+          <t>[-9.466379161208716]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1129,7 +1245,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[-9.626931788175666]</t>
+          <t>[-9.428292615364326]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1144,7 +1260,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[-9.60105505102008]</t>
+          <t>[-9.385360450310069]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1159,7 +1275,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[-9.572191061757946]</t>
+          <t>[-9.336572051851215]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1174,7 +1290,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[-9.5398056697478]</t>
+          <t>[-9.280645347560322]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1189,7 +1305,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[-9.503202395461042]</t>
+          <t>[-9.215915089920918]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1204,7 +1320,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[-9.461501286625753]</t>
+          <t>[-9.140103898356218]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1219,7 +1335,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[-9.413565766028965]</t>
+          <t>[-9.050108855293724]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1234,7 +1350,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[-9.35790067251178]</t>
+          <t>[-8.9415486242701]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1249,7 +1365,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-9.292489744365325]</t>
+          <t>[-8.808041309400451]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1264,7 +1380,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[-9.214521784387244]</t>
+          <t>[-8.639847469015168]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1279,7 +1395,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[-9.120052280141437]</t>
+          <t>[-8.42138852099428]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1294,7 +1410,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-9.003213577433861]</t>
+          <t>[-8.126318262693157]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1309,7 +1425,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[-8.855039694726345]</t>
+          <t>[-7.705560853656253]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1324,7 +1440,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-8.66102552145414]</t>
+          <t>[-7.057272604095929]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1339,7 +1455,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[-8.396239845572309]</t>
+          <t>[-6.533948807353991]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1354,7 +1470,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[-8.01753178692819]</t>
+          <t>[-6.52303565041135]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1369,7 +1485,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[-7.454449813162634]</t>
+          <t>[-6.512055493541699]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1384,7 +1500,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[-7.120151227325213]</t>
+          <t>[-6.497838703221931]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1399,7 +1515,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[-7.181144191476941]</t>
+          <t>[-6.480017697691256]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1414,7 +1530,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[-7.261107168204401]</t>
+          <t>[-6.461872422992966]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1429,7 +1545,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[-7.340618101545253]</t>
+          <t>[-6.443544324368245]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1444,7 +1560,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[-7.349724972497249]</t>
+          <t>[-6.396601102789894]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1459,7 +1575,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[-7.358865855747815]</t>
+          <t>[-6.364040911713268]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1474,7 +1590,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[-7.367946178539716]</t>
+          <t>[-6.607170667573424]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1489,7 +1605,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[-7.371114749624778]</t>
+          <t>[-6.716174143198218]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1504,7 +1620,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[-7.39966920947816]</t>
+          <t>[-7.101417901602142]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1519,7 +1635,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[-7.427810809005278]</t>
+          <t>[-7.3354668172981725]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1534,7 +1650,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[-7.455459323658722]</t>
+          <t>[-6.519109611805254]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1549,7 +1665,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[-7.482627187960085]</t>
+          <t>[-5.640138751238849]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1564,7 +1680,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[-7.509074715807882]</t>
+          <t>[-5.506991579484563]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1579,7 +1695,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[-7.534335011705846]</t>
+          <t>[-5.35065963060686]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1594,7 +1710,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[-7.562331482950039]</t>
+          <t>[-5.135030617311193]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1609,7 +1725,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[-7.589723555806582]</t>
+          <t>[-4.899791991679667]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1624,7 +1740,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[-7.616145057128664]</t>
+          <t>[-4.641484716157205]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1639,7 +1755,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[-7.641260718566555]</t>
+          <t>[-4.359105696242903]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1654,7 +1770,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[-7.664613839081859]</t>
+          <t>[-4.033265925176946]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1669,7 +1785,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[-7.686217300787496]</t>
+          <t>[-3.660389238694905]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1684,7 +1800,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[-7.707440858928731]</t>
+          <t>[-3.357562226979966]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1699,7 +1815,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[-7.729137895267166]</t>
+          <t>[-3.3842130133640445]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1714,7 +1830,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[-7.749202197995944]</t>
+          <t>[-2.2190893169877417]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1729,7 +1845,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[-7.767774473791615]</t>
+          <t>[-2.001376765949788]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1744,7 +1860,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[-7.784917235791179]</t>
+          <t>[-1.998460707534432]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1759,7 +1875,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[-7.800620832375259]</t>
+          <t>[-1.8506874427131068]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1774,7 +1890,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[-7.815134378659355]</t>
+          <t>[-1.782838924313833]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1789,7 +1905,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[-7.828498821658763]</t>
+          <t>[-1.784375866210847]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1804,7 +1920,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[-8.398848720272952]</t>
+          <t>[-2.970385065327456]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1819,7 +1935,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[-8.398848720272952]</t>
+          <t>[-3.8431179281300953]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1834,7 +1950,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[-8.398848720272952]</t>
+          <t>[-3.51043637456217]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1849,7 +1965,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[-8.428175363055255]</t>
+          <t>[-3.2076800776476992]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1864,7 +1980,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[-7.840240664369244]</t>
+          <t>[-2.900340436071044]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1879,12 +1995,477 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[-7.838835500282645]</t>
+          <t>[-2.4778698911191666]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[-0.1324385744749298]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[-1.7006052088325332]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[-1.491450129810371]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[-1.3180577968573144]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[-1.1607866507747315]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[-1.1678840809845186]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[-1.1678840809845186]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[-1.1625620655412103]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[-1.1340705319784798]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[-1.1296023123691823]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[-1.126024528866287]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[-1.122443890274314]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[1.1026991902429275]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[1.1062955930848395]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[1.1080927165551]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[1.1080927165551]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[1.1062955930848395]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[1.105396761942834]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[1.1044977511244378]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[1.1044977511244378]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[1.1044977511244378]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[1.1044977511244378]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[1.1044977511244378]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[1.105396761942834]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[1.105396761942834]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[1.1062955930848395]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[1.1062955930848395]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[1.107194244604316]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[1.107194244604316]</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[1.1080927165551]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[1.1080927165551]</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[1]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +2507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.502132028215444</v>
+        <v>2.623635258815865</v>
       </c>
     </row>
     <row r="3">
@@ -1936,7 +2517,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7203244934421581</v>
+        <v>0.515522344973934</v>
       </c>
     </row>
     <row r="4">
@@ -1946,7 +2527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001143748173448866</v>
+        <v>0.9812158765963285</v>
       </c>
     </row>
     <row r="5">
@@ -1956,7 +2537,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.813995435791039</v>
+        <v>4.485075617161415</v>
       </c>
     </row>
     <row r="6">
@@ -1966,7 +2547,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.146755890817113</v>
+        <v>0.03082569667687479</v>
       </c>
     </row>
     <row r="7">
@@ -1976,7 +2557,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0923385947687978</v>
+        <v>0.5358964059155116</v>
       </c>
     </row>
     <row r="8">
@@ -1986,7 +2567,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1996,7 +2577,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>18.44660194174757</v>
       </c>
     </row>
   </sheetData>
